--- a/Task list.xlsx
+++ b/Task list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42408" windowHeight="22296"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>User story</t>
   </si>
@@ -226,7 +226,10 @@
     <t>Dodati potrebne izmene za proveru blokiranog korisnika na Nalog aplikativnom service-u.</t>
   </si>
   <si>
-    <t>Dodati podrsku za logovanje</t>
+    <t>Dodati podrsku za logovanje I na svim mjestima ubaciti logovanje</t>
+  </si>
+  <si>
+    <t>0:15 za konfiguraciju</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,6 +680,9 @@
       <c r="C4" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -688,6 +694,9 @@
       <c r="C5" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -699,6 +708,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -714,12 +726,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="11">
         <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -729,13 +747,25 @@
       <c r="C9" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="11">
         <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -745,6 +775,12 @@
       <c r="C11" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D11" s="11">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
@@ -753,6 +789,12 @@
       <c r="C12" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D12" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
@@ -761,6 +803,9 @@
       <c r="C13" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
@@ -769,6 +814,9 @@
       <c r="C14" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
@@ -777,6 +825,9 @@
       <c r="C15" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
@@ -785,32 +836,50 @@
       <c r="C16" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="11">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="D17" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -820,13 +889,16 @@
       <c r="C20" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="10" t="s">
         <v>29</v>
@@ -834,8 +906,11 @@
       <c r="C22" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="10" t="s">
         <v>31</v>
@@ -843,8 +918,11 @@
       <c r="C23" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" t="s">
         <v>25</v>
@@ -852,8 +930,11 @@
       <c r="C24" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>30</v>
@@ -861,8 +942,11 @@
       <c r="C25" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -870,13 +954,16 @@
       <c r="C26" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>32</v>
@@ -884,8 +971,11 @@
       <c r="C28" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>31</v>
@@ -893,8 +983,11 @@
       <c r="C29" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -902,8 +995,11 @@
       <c r="C30" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>30</v>
@@ -911,8 +1007,11 @@
       <c r="C31" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>26</v>
@@ -920,13 +1019,16 @@
       <c r="C32" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -934,8 +1036,11 @@
       <c r="C34" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>31</v>
@@ -943,8 +1048,11 @@
       <c r="C35" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" t="s">
         <v>25</v>
@@ -952,8 +1060,11 @@
       <c r="C36" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" t="s">
         <v>30</v>
@@ -961,8 +1072,11 @@
       <c r="C37" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>26</v>
@@ -970,13 +1084,16 @@
       <c r="C38" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>38</v>
@@ -984,8 +1101,11 @@
       <c r="C40" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>25</v>
@@ -993,8 +1113,11 @@
       <c r="C41" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>30</v>
@@ -1002,8 +1125,11 @@
       <c r="C42" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" t="s">
         <v>26</v>
@@ -1011,13 +1137,16 @@
       <c r="C43" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>47</v>
@@ -1025,8 +1154,11 @@
       <c r="C45" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>25</v>
@@ -1034,8 +1166,11 @@
       <c r="C46" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>30</v>
@@ -1043,8 +1178,11 @@
       <c r="C47" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -1052,13 +1190,16 @@
       <c r="C48" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>39</v>
@@ -1066,8 +1207,11 @@
       <c r="C50" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" t="s">
         <v>25</v>
@@ -1075,8 +1219,11 @@
       <c r="C51" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" t="s">
         <v>30</v>
@@ -1084,8 +1231,11 @@
       <c r="C52" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" t="s">
         <v>26</v>
@@ -1093,13 +1243,16 @@
       <c r="C53" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>40</v>
@@ -1107,8 +1260,11 @@
       <c r="C55" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -1116,8 +1272,11 @@
       <c r="C56" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" t="s">
         <v>30</v>
@@ -1125,8 +1284,11 @@
       <c r="C57" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" t="s">
         <v>26</v>
@@ -1134,13 +1296,16 @@
       <c r="C58" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" t="s">
         <v>41</v>
@@ -1148,8 +1313,11 @@
       <c r="C60" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" t="s">
         <v>42</v>
@@ -1157,8 +1325,11 @@
       <c r="C61" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" t="s">
         <v>25</v>
@@ -1166,8 +1337,11 @@
       <c r="C62" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" t="s">
         <v>30</v>
@@ -1175,8 +1349,11 @@
       <c r="C63" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
         <v>26</v>
@@ -1184,13 +1361,16 @@
       <c r="C64" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" t="s">
         <v>43</v>
@@ -1198,8 +1378,11 @@
       <c r="C66" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" t="s">
         <v>25</v>
@@ -1207,8 +1390,11 @@
       <c r="C67" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" t="s">
         <v>30</v>
@@ -1216,8 +1402,11 @@
       <c r="C68" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" t="s">
         <v>26</v>
@@ -1225,13 +1414,16 @@
       <c r="C69" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>44</v>
@@ -1239,29 +1431,41 @@
       <c r="C71" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>30</v>
       </c>
       <c r="C73" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>26</v>
       </c>
       <c r="C74" s="11">
         <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Task list.xlsx
+++ b/Task list.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Documents\repos\online-wallet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -235,8 +230,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -437,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,30 +609,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="98.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="98.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="39.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,12 +649,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -673,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="26.25" thickBot="1">
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
@@ -687,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -701,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -715,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
@@ -726,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="39.75" thickBot="1">
       <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
@@ -740,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -754,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
@@ -768,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -782,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
@@ -796,40 +791,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D13" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="B14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D14" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.6" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="D15" s="11">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="E15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="26.25">
       <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
@@ -843,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
@@ -857,18 +861,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="26.25">
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D18" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
@@ -879,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -889,16 +896,19 @@
       <c r="C20" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="D20" s="11">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="E20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="8"/>
       <c r="B22" s="10" t="s">
         <v>29</v>
@@ -910,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="10" t="s">
         <v>31</v>
@@ -922,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" t="s">
         <v>25</v>
@@ -934,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>30</v>
@@ -946,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>26</v>
@@ -958,12 +968,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>32</v>
@@ -975,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>31</v>
@@ -987,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -999,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>30</v>
@@ -1011,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>26</v>
@@ -1023,12 +1033,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -1040,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>31</v>
@@ -1052,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="7"/>
       <c r="B36" t="s">
         <v>25</v>
@@ -1064,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" t="s">
         <v>30</v>
@@ -1076,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>26</v>
@@ -1088,12 +1098,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>38</v>
@@ -1105,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>25</v>
@@ -1117,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>30</v>
@@ -1129,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="7"/>
       <c r="B43" t="s">
         <v>26</v>
@@ -1141,12 +1151,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>47</v>
@@ -1158,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>25</v>
@@ -1170,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>30</v>
@@ -1182,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>26</v>
@@ -1194,12 +1204,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30">
       <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>39</v>
@@ -1211,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="7"/>
       <c r="B51" t="s">
         <v>25</v>
@@ -1223,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="7"/>
       <c r="B52" t="s">
         <v>30</v>
@@ -1235,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" t="s">
         <v>26</v>
@@ -1247,12 +1257,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30">
       <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>40</v>
@@ -1264,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -1276,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="7"/>
       <c r="B57" t="s">
         <v>30</v>
@@ -1288,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="7"/>
       <c r="B58" t="s">
         <v>26</v>
@@ -1300,12 +1310,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="7"/>
       <c r="B60" t="s">
         <v>41</v>
@@ -1317,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="7"/>
       <c r="B61" t="s">
         <v>42</v>
@@ -1329,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="7"/>
       <c r="B62" t="s">
         <v>25</v>
@@ -1341,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="7"/>
       <c r="B63" t="s">
         <v>30</v>
@@ -1353,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
         <v>26</v>
@@ -1365,12 +1375,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="7"/>
       <c r="B66" t="s">
         <v>43</v>
@@ -1382,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="7"/>
       <c r="B67" t="s">
         <v>25</v>
@@ -1394,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="7"/>
       <c r="B68" t="s">
         <v>30</v>
@@ -1406,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="7"/>
       <c r="B69" t="s">
         <v>26</v>
@@ -1418,12 +1428,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30">
       <c r="A71" s="7"/>
       <c r="B71" s="3" t="s">
         <v>44</v>
@@ -1435,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="B72" t="s">
         <v>25</v>
       </c>
@@ -1446,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="B73" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="B74" t="s">
         <v>26</v>
       </c>
